--- a/MBD_A2_package/mbdass02.xlsx
+++ b/MBD_A2_package/mbdass02.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/2021s1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinjin/Documents/UoA/MBD/MBD1/MBD_A2_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B2FCC8-3229-C047-8C34-828AEB764F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13CC2CC-3E16-D54C-8E07-68F4971E555F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A6B7766F-7030-A547-9871-D8D6C983EFCF}"/>
+    <workbookView xWindow="5800" yWindow="1140" windowWidth="16120" windowHeight="19860" xr2:uid="{A6B7766F-7030-A547-9871-D8D6C983EFCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$32:$B$40</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$32:$C$40</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$31</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$32:$B$40</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$C$31</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$32:$C$40</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,8 +58,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,12 +92,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +245,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.9551197902516542E-3</c:v>
@@ -385,7 +378,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -599,7 +592,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$18:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.9999810001669616E-5</c:v>
@@ -732,7 +725,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -946,7 +939,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$32:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.9987751959512661E-4</c:v>
@@ -1079,7 +1072,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3245,11 +3238,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4494AB-CA71-BA40-82E2-C0C55DF3009B}">
   <dimension ref="B1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -3384,7 +3380,7 @@
       <c r="B18">
         <v>0.1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <f>1-(1-B18^$C$16)^$C$15</f>
         <v>1.9999810001669616E-5</v>
       </c>
@@ -3393,7 +3389,7 @@
       <c r="B19">
         <v>0.2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <f t="shared" ref="C19:C26" si="1">1-(1-B19^$C$16)^$C$15</f>
         <v>1.2792220587620751E-3</v>
       </c>
@@ -3402,7 +3398,7 @@
       <c r="B20">
         <v>0.3</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>1.4479466504172422E-2</v>
       </c>
@@ -3411,7 +3407,7 @@
       <c r="B21">
         <v>0.4</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>7.8809323110562213E-2</v>
       </c>
@@ -3420,7 +3416,7 @@
       <c r="B22">
         <v>0.5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>0.27018714400947597</v>
       </c>
@@ -3429,7 +3425,7 @@
       <c r="B23">
         <v>0.6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>0.61541463603126756</v>
       </c>
@@ -3438,7 +3434,7 @@
       <c r="B24">
         <v>0.7</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>0.91818599658467392</v>
       </c>
@@ -3447,7 +3443,7 @@
       <c r="B25">
         <v>0.8</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <f t="shared" si="1"/>
         <v>0.99771212515468055</v>
       </c>
@@ -3456,7 +3452,7 @@
       <c r="B26">
         <v>0.9</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <f t="shared" si="1"/>
         <v>0.99999973981294654</v>
       </c>
@@ -3489,7 +3485,7 @@
       <c r="B32">
         <v>0.1</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <f>1-(1-B32^$C$30)^$C$29</f>
         <v>4.9987751959512661E-4</v>
       </c>
@@ -3498,7 +3494,7 @@
       <c r="B33">
         <v>0.2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <f t="shared" ref="C33:C40" si="2">1-(1-B33^$C$30)^$C$29</f>
         <v>1.5875199845019949E-2</v>
       </c>
@@ -3507,7 +3503,7 @@
       <c r="B34">
         <v>0.3</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <f t="shared" si="2"/>
         <v>0.11453988231042289</v>
       </c>
@@ -3516,7 +3512,7 @@
       <c r="B35">
         <v>0.4</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <f t="shared" si="2"/>
         <v>0.40228395220880431</v>
       </c>
@@ -3525,7 +3521,7 @@
       <c r="B36">
         <v>0.5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" si="2"/>
         <v>0.79555063043236496</v>
       </c>
@@ -3534,7 +3530,7 @@
       <c r="B37">
         <v>0.6</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" si="2"/>
         <v>0.98253382770686093</v>
       </c>
@@ -3543,7 +3539,7 @@
       <c r="B38">
         <v>0.7</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" si="2"/>
         <v>0.99989899583615571</v>
       </c>
@@ -3552,7 +3548,7 @@
       <c r="B39">
         <v>0.8</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" si="2"/>
         <v>0.99999999760777769</v>
       </c>
@@ -3561,7 +3557,7 @@
       <c r="B40">
         <v>0.9</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
